--- a/reports/candidates.xlsx
+++ b/reports/candidates.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Downloads\python auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A57E19D-F00E-41C2-8E04-35CC6AAEF356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="candidates_1713157698542" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="candidates_1713157698542"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -331,32 +325,26 @@
     <t>0 min : 29 sec</t>
   </si>
   <si>
+    <t>allvin@example.com</t>
+  </si>
+  <si>
     <t>661114f4ad6de22d9ab907d3;66111924cc8e95e69c0ba156</t>
-  </si>
-  <si>
-    <t>allvin@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -367,10 +355,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -397,44 +384,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -445,10 +429,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -486,71 +470,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,7 +562,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -601,11 +585,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -614,13 +598,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -630,7 +614,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -639,7 +623,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -648,7 +632,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -656,10 +640,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -724,1638 +708,1765 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="91.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="74.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="49.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="91.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="5" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="5" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="6" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="6" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="5" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="6" width="30.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>274070008182462</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>18177039</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4">
-        <v>45395.463206018518</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="K2" s="3">
+        <v>45395.46320601852</v>
+      </c>
+      <c r="L2" s="3">
         <v>45395.575219907405</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>45395.575694444444</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="3">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="2">
         <v>3</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="2">
         <v>10</v>
       </c>
-      <c r="AE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="3">
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2">
         <v>100</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>274070008228556</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>18177039</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="4">
-        <v>45395.463206018518</v>
-      </c>
-      <c r="L3" s="4">
-        <v>45395.577604166669</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="K3" s="3">
+        <v>45395.46320601852</v>
+      </c>
+      <c r="L3" s="3">
+        <v>45395.57760416667</v>
+      </c>
+      <c r="M3" s="3">
         <v>45395.5780787037</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W3" t="s">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="3">
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="2">
         <v>3</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="2">
         <v>10</v>
       </c>
-      <c r="AE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="3">
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2">
         <v>62</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>274070008465299</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>18177039</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="4">
-        <v>45395.463206018518</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="3">
+        <v>45395.46320601852</v>
+      </c>
+      <c r="L4" s="3">
         <v>45395.576828703706</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>45395.577893518515</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="3">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
         <v>1</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W4" t="s">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="3">
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="2">
         <v>3</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <v>10</v>
       </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="3">
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2">
         <v>38</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM4" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>274070008615107</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>18177039</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4">
-        <v>45395.463206018518</v>
-      </c>
-      <c r="L5" s="4">
-        <v>45395.578715277778</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="K5" s="3">
+        <v>45395.46320601852</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45395.57871527778</v>
+      </c>
+      <c r="M5" s="3">
         <v>45395.57916666667</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W5" t="s">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="3">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="2">
         <v>3</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="2">
         <v>10</v>
       </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="3">
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2">
         <v>85</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM5" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>274070008650216</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>18177039</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="4">
-        <v>45395.463206018518</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="3">
+        <v>45395.46320601852</v>
+      </c>
+      <c r="L6" s="3">
         <v>45395.475648148145</v>
       </c>
-      <c r="M6" s="4">
-        <v>45395.478703703702</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="3">
+      <c r="M6" s="3">
+        <v>45395.4787037037</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2">
         <v>1</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W6" t="s">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" s="3">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="2">
         <v>3</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="2">
         <v>10</v>
       </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="3">
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2">
         <v>77</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>274070008710881</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>18177039</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4">
-        <v>45395.463206018518</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7" s="3">
+        <v>45395.46320601852</v>
+      </c>
+      <c r="L7" s="3">
         <v>45395.571076388886</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>45395.57440972222</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W7" t="s">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="3">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="2">
         <v>3</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="2">
         <v>10</v>
       </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="3">
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2">
         <v>92</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM7" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>274070008882826</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>18177039</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="4">
-        <v>45395.463206018518</v>
-      </c>
-      <c r="L8" s="4">
-        <v>45395.464259259257</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="K8" s="3">
+        <v>45395.46320601852</v>
+      </c>
+      <c r="L8" s="3">
+        <v>45395.46425925926</v>
+      </c>
+      <c r="M8" s="3">
         <v>45395.464537037034</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W8" t="s">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC8" s="3">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="2">
         <v>3</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="2">
         <v>10</v>
       </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="3">
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2">
         <v>15</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AL8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AM8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>274070008999018</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>18177039</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4">
-        <v>45395.463206018518</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" s="3">
+        <v>45395.46320601852</v>
+      </c>
+      <c r="L9" s="3">
         <v>45395.572384259256</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>45395.574016203704</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W9" t="s">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="2">
         <v>3</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="2">
         <v>10</v>
       </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="s">
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="3">
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2">
         <v>77</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AL9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AM9" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>274070005037889</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>18177026</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="4">
-        <v>45394.862187500003</v>
-      </c>
-      <c r="L10" s="4">
-        <v>45394.862835648149</v>
-      </c>
-      <c r="M10" s="4">
-        <v>45394.862835648149</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="K10" s="3">
+        <v>45394.8621875</v>
+      </c>
+      <c r="L10" s="3">
+        <v>45394.86283564815</v>
+      </c>
+      <c r="M10" s="3">
+        <v>45394.86283564815</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W10" t="s">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC10" s="2">
         <v>3</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="2">
         <v>10</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="s">
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1" t="s">
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AL10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AM10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>274070005638705</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>18177041</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>45395.589212962965</v>
       </c>
-      <c r="L11" s="4">
-        <v>45395.590879629628</v>
-      </c>
-      <c r="M11" s="4">
-        <v>45395.591307870367</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="L11" s="3">
+        <v>45395.59087962963</v>
+      </c>
+      <c r="M11" s="3">
+        <v>45395.59130787037</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>122437</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <v>1</v>
       </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W11" t="s">
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC11" s="3">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" s="2">
         <v>3</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="2">
         <v>10</v>
       </c>
-      <c r="AE11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="s">
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="3">
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2">
         <v>54</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AL11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM11" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>274070005783871</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>18177042</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>45395.589212962965</v>
       </c>
-      <c r="L12" s="4">
-        <v>45395.590879629628</v>
-      </c>
-      <c r="M12" s="4">
-        <v>45395.591539351852</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="L12" s="3">
+        <v>45395.59087962963</v>
+      </c>
+      <c r="M12" s="3">
+        <v>45395.59153935185</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>122437</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="2">
         <v>1</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W12" t="s">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC12" s="3">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12" s="2">
         <v>3</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12" s="2">
         <v>10</v>
       </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="s">
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="3">
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
         <v>31</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AL12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AM12" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>274070005356445</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>18177043</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>45395.589212962965</v>
       </c>
-      <c r="L13" s="4">
-        <v>45395.590717592589</v>
-      </c>
-      <c r="M13" s="4">
-        <v>45395.591967592591</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="L13" s="3">
+        <v>45395.59071759259</v>
+      </c>
+      <c r="M13" s="3">
+        <v>45395.59196759259</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <v>122437</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="2">
         <v>1</v>
       </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W13" t="s">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC13" s="3">
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="2">
         <v>3</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD13" s="2">
         <v>10</v>
       </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="s">
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="3">
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
         <v>85</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AL13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AM13" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>274070009874871</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>18177045</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="4">
-        <v>45395.718287037038</v>
-      </c>
-      <c r="L14" s="4">
-        <v>45395.848252314812</v>
-      </c>
-      <c r="M14" s="4">
-        <v>45395.850428240738</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="K14" s="3">
+        <v>45395.71828703704</v>
+      </c>
+      <c r="L14" s="3">
+        <v>45395.84825231481</v>
+      </c>
+      <c r="M14" s="3">
+        <v>45395.85042824074</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>122437</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="2">
         <v>2</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W14" t="s">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14" s="2">
         <v>3</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="2">
         <v>10</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="s">
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="3">
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2">
         <v>54</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AL14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AM14" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>274070009801390</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>18177046</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="4">
-        <v>45395.718287037038</v>
-      </c>
-      <c r="L15" s="4">
-        <v>45395.840011574073</v>
-      </c>
-      <c r="M15" s="4">
-        <v>45395.840370370373</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="K15" s="3">
+        <v>45395.71828703704</v>
+      </c>
+      <c r="L15" s="3">
+        <v>45395.84001157407</v>
+      </c>
+      <c r="M15" s="3">
+        <v>45395.84037037037</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="2">
         <v>122437</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="2">
         <v>2</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W15" t="s">
+      <c r="V15" s="1"/>
+      <c r="W15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC15" s="3">
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" s="2">
         <v>3</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="2">
         <v>10</v>
       </c>
-      <c r="AE15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="s">
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="3">
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2">
         <v>85</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AL15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AM15" s="3">
+      <c r="AM15" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>274070009405233</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>18177047</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="4">
-        <v>45395.718287037038</v>
-      </c>
-      <c r="L16" s="4">
-        <v>45395.934571759259</v>
-      </c>
-      <c r="M16" s="4">
+      <c r="K16" s="3">
+        <v>45395.71828703704</v>
+      </c>
+      <c r="L16" s="3">
+        <v>45395.93457175926</v>
+      </c>
+      <c r="M16" s="3">
         <v>45395.93509259259</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>122437</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="2">
         <v>2</v>
       </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W16" t="s">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC16" s="3">
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC16" s="2">
         <v>3</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16" s="2">
         <v>10</v>
       </c>
-      <c r="AE16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="s">
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="3">
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2">
         <v>77</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AL16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AM16" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>274070009405233</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>18177048</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="3">
+        <v>45395.71828703704</v>
+      </c>
+      <c r="L17" s="3">
+        <v>45395.93457175926</v>
+      </c>
+      <c r="M17" s="3">
+        <v>45395.93509259259</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="4">
-        <v>45395.718287037038</v>
-      </c>
-      <c r="L17" s="4">
-        <v>45395.934571759259</v>
-      </c>
-      <c r="M17" s="4">
-        <v>45395.93509259259</v>
-      </c>
-      <c r="N17" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>122437</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="2">
         <v>2</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W17" t="s">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC17" s="2">
         <v>3</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="2">
         <v>10</v>
       </c>
-      <c r="AE17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="s">
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="3">
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
         <v>77</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AL17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AM17" s="2">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1" xr:uid="{59FC0312-FECF-464F-99DF-E630C6E0659F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>